--- a/EE454_Project_OutputData.xlsx
+++ b/EE454_Project_OutputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Htut\Downloads\18 AUTUMN\EE 454\Project\Git\ee454PowerFlowProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22207696-6251-47F7-A6E2-74D15E3B44F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A78800E-D4A6-40FB-946E-B24CD2559C81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9490" windowHeight="8790" xr2:uid="{85B10DF5-AE18-4ADC-AFF2-7A735DBB96CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9490" windowHeight="8790" firstSheet="11" activeTab="11" xr2:uid="{85B10DF5-AE18-4ADC-AFF2-7A735DBB96CE}"/>
   </bookViews>
   <sheets>
     <sheet name="genPowerInfoBaseCase" sheetId="2" r:id="rId1"/>
@@ -124,11 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AAD031-9756-47EF-91AD-5978FE19F2CA}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
@@ -527,7 +528,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F13"/>
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,10 +564,10 @@
         <v>1.05</v>
       </c>
       <c r="D2">
-        <v>144.87504643187626</v>
+        <v>144.875</v>
       </c>
       <c r="E2">
-        <v>-34.968239794369893</v>
+        <v>-34.968240000000002</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -577,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4.8062788673035755</v>
+        <v>-4.806279</v>
       </c>
       <c r="C3">
         <v>1.0449999999999999</v>
@@ -586,7 +587,7 @@
         <v>18.3</v>
       </c>
       <c r="E3">
-        <v>43.455965269191132</v>
+        <v>43.455970000000001</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -597,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-11.879767573764447</v>
+        <v>-11.879770000000001</v>
       </c>
       <c r="C4">
         <v>1.01</v>
@@ -606,7 +607,7 @@
         <v>-68.2</v>
       </c>
       <c r="E4">
-        <v>4.8873566111957309</v>
+        <v>4.8873569999999997</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -617,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-9.33130525232135</v>
+        <v>-9.3313050000000004</v>
       </c>
       <c r="C5">
-        <v>1.0202728419728246</v>
+        <v>1.020273</v>
       </c>
       <c r="D5">
         <v>-47.8</v>
@@ -637,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-8.890586717460387</v>
+        <v>-8.890587</v>
       </c>
       <c r="C6">
-        <v>1.0213973426257781</v>
+        <v>1.0213970000000001</v>
       </c>
       <c r="D6">
         <v>-7.6</v>
@@ -657,10 +658,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-11.308198048301854</v>
+        <v>-11.308199999999999</v>
       </c>
       <c r="C7">
-        <v>1.0190363855130493</v>
+        <v>1.0190360000000001</v>
       </c>
       <c r="D7">
         <v>-11.2</v>
@@ -677,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-13.676986971104821</v>
+        <v>-13.67699</v>
       </c>
       <c r="C8">
-        <v>0.98874825926388354</v>
+        <v>0.98874830000000002</v>
       </c>
       <c r="D8">
         <v>-29.5</v>
@@ -697,10 +698,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-13.571183370668139</v>
+        <v>-13.57118</v>
       </c>
       <c r="C9">
-        <v>0.98578017508393223</v>
+        <v>0.9857802</v>
       </c>
       <c r="D9">
         <v>-9</v>
@@ -717,16 +718,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-12.582166895386461</v>
+        <v>-12.58217</v>
       </c>
       <c r="C10">
-        <v>0.99803929397832569</v>
+        <v>0.99803929999999996</v>
       </c>
       <c r="D10">
-        <v>-3.5000000000000004</v>
+        <v>-3.5</v>
       </c>
       <c r="E10">
-        <v>-1.8000000000000003</v>
+        <v>-1.8</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -737,16 +738,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-10.48826851569247</v>
+        <v>-10.48827</v>
       </c>
       <c r="C11">
         <v>1.05</v>
       </c>
       <c r="D11">
-        <v>21.900000000000002</v>
+        <v>21.9</v>
       </c>
       <c r="E11">
-        <v>9.3857723092276135</v>
+        <v>9.3857719999999993</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -757,10 +758,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-11.614425687503175</v>
+        <v>-11.61443</v>
       </c>
       <c r="C12">
-        <v>1.0222324619464644</v>
+        <v>1.022232</v>
       </c>
       <c r="D12">
         <v>-13.5</v>
@@ -777,7 +778,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-12.503896933798837</v>
+        <v>-12.5039</v>
       </c>
       <c r="C13">
         <v>1.05</v>
@@ -786,7 +787,7 @@
         <v>15.1</v>
       </c>
       <c r="E13">
-        <v>25.194279101645911</v>
+        <v>25.194279999999999</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -802,7 +803,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F17"/>
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,13 +836,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>12.433652283649014</v>
+        <v>12.4337</v>
       </c>
       <c r="D2">
-        <v>3.87010625597122</v>
+        <v>3.8701099999999999</v>
       </c>
       <c r="E2">
-        <v>11.816005529711925</v>
+        <v>11.816000000000001</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -855,13 +856,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>8.4980496580956437</v>
+        <v>8.4980499999999992</v>
       </c>
       <c r="D3">
-        <v>1.9625629221487597</v>
+        <v>1.9625600000000001</v>
       </c>
       <c r="E3">
-        <v>8.2683247860776738</v>
+        <v>8.2683199999999992</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -875,13 +876,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>3.9095830933944287</v>
+        <v>3.9095800000000001</v>
       </c>
       <c r="D4">
-        <v>1.2237393927134803</v>
+        <v>1.22374</v>
       </c>
       <c r="E4">
-        <v>3.7131256190542214</v>
+        <v>3.71313</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -895,13 +896,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>3.2675401862330817</v>
+        <v>3.2675399999999999</v>
       </c>
       <c r="D5">
-        <v>1.0170394227649433</v>
+        <v>1.0170399999999999</v>
       </c>
       <c r="E5">
-        <v>3.1052294087860997</v>
+        <v>3.1052300000000002</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -915,13 +916,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.30999580228549228</v>
+        <v>0.30999599999999999</v>
       </c>
       <c r="D6">
-        <v>0.3003667998873823</v>
+        <v>0.300367</v>
       </c>
       <c r="E6">
-        <v>7.6662787322398118E-2</v>
+        <v>7.6662800000000003E-2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -935,13 +936,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.14243654644119577</v>
+        <v>0.14243700000000001</v>
       </c>
       <c r="D7">
-        <v>4.3044855011314609E-2</v>
+        <v>4.3044899999999997E-2</v>
       </c>
       <c r="E7">
-        <v>0.13577669247389196</v>
+        <v>0.13577700000000001</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -955,13 +956,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1.2215983626462261</v>
-      </c>
-      <c r="D8">
-        <v>8.6736173798840355E-17</v>
+        <v>1.2216</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8.6736199999999999E-17</v>
       </c>
       <c r="E8">
-        <v>1.2215983626462261</v>
+        <v>1.2216</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -975,13 +976,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.7374239174029309</v>
+        <v>0.73742399999999997</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7374239174029309</v>
+        <v>0.73742399999999997</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -995,13 +996,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.42813662380392636</v>
+        <v>0.42813699999999999</v>
       </c>
       <c r="D10">
-        <v>0.18449092827563573</v>
+        <v>0.18449099999999999</v>
       </c>
       <c r="E10">
-        <v>0.38634707974335591</v>
+        <v>0.386347</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1015,13 +1016,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.41502494864464751</v>
+        <v>0.41502499999999998</v>
       </c>
       <c r="D11">
-        <v>0.17973822455193597</v>
+        <v>0.17973800000000001</v>
       </c>
       <c r="E11">
-        <v>0.37408538949337511</v>
+        <v>0.374085</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1035,13 +1036,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>2.7358367287416946E-2</v>
+        <v>2.7358400000000001E-2</v>
       </c>
       <c r="D12">
-        <v>1.2386847795083577E-2</v>
+        <v>1.23868E-2</v>
       </c>
       <c r="E12">
-        <v>2.4393570102275695E-2</v>
+        <v>2.4393600000000001E-2</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1055,13 +1056,13 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>1.3438185237995304E-2</v>
+        <v>1.3438200000000001E-2</v>
       </c>
       <c r="D13">
-        <v>4.7344425172363459E-3</v>
+        <v>4.7344400000000003E-3</v>
       </c>
       <c r="E13">
-        <v>1.2576560600643551E-2</v>
+        <v>1.25766E-2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1075,13 +1076,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.4014099972025951</v>
+        <v>1.40141</v>
       </c>
       <c r="D14">
-        <v>0.5962259881301657</v>
+        <v>0.59622600000000003</v>
       </c>
       <c r="E14">
-        <v>1.2682525581829454</v>
+        <v>1.2682500000000001</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1095,13 +1096,13 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>0.21230751026982997</v>
+        <v>0.212308</v>
       </c>
       <c r="D15">
-        <v>8.3403781745402666E-2</v>
+        <v>8.34038E-2</v>
       </c>
       <c r="E15">
-        <v>0.19523905374575853</v>
+        <v>0.195239</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1115,13 +1116,13 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>0.39798385462249969</v>
+        <v>0.397984</v>
       </c>
       <c r="D16">
-        <v>0.29511926771617697</v>
+        <v>0.29511900000000002</v>
       </c>
       <c r="E16">
-        <v>0.26701267079082674</v>
+        <v>0.267013</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1135,13 +1136,13 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>0.26557303356412132</v>
+        <v>0.265573</v>
       </c>
       <c r="D17">
-        <v>0.11707717572640754</v>
+        <v>0.117077</v>
       </c>
       <c r="E17">
-        <v>0.23837359560231877</v>
+        <v>0.238374</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1156,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE68B69-1A69-43A0-97E1-3EFF97FE129A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
@@ -1240,7 +1241,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F13"/>
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1276,10 +1277,10 @@
         <v>1.05</v>
       </c>
       <c r="D2">
-        <v>142.61331805185034</v>
+        <v>142.61330000000001</v>
       </c>
       <c r="E2">
-        <v>-26.656016911629887</v>
+        <v>-26.656020000000002</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1290,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-3.2663070168322581</v>
+        <v>-3.2663069999999998</v>
       </c>
       <c r="C3">
         <v>1.0449999999999999</v>
@@ -1299,7 +1300,7 @@
         <v>18.3</v>
       </c>
       <c r="E3">
-        <v>24.233237802040364</v>
+        <v>24.233239999999999</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1310,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-10.081898214976853</v>
+        <v>-10.081899999999999</v>
       </c>
       <c r="C4">
         <v>1.01</v>
@@ -1319,7 +1320,7 @@
         <v>-68.2</v>
       </c>
       <c r="E4">
-        <v>7.5621179568719938</v>
+        <v>7.5621179999999999</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1330,10 +1331,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-6.0643351701009891</v>
+        <v>-6.0643349999999998</v>
       </c>
       <c r="C5">
-        <v>1.0304241252214543</v>
+        <v>1.030424</v>
       </c>
       <c r="D5">
         <v>-47.8</v>
@@ -1350,10 +1351,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-5.1684512553262145</v>
+        <v>-5.1684510000000001</v>
       </c>
       <c r="C6">
-        <v>1.0328155573399083</v>
+        <v>1.032816</v>
       </c>
       <c r="D6">
         <v>-7.6</v>
@@ -1370,10 +1371,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-7.6431046283297936</v>
+        <v>-7.6431050000000003</v>
       </c>
       <c r="C7">
-        <v>1.0230293771979835</v>
+        <v>1.023029</v>
       </c>
       <c r="D7">
         <v>-11.2</v>
@@ -1390,10 +1391,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-10.119951793283741</v>
+        <v>-10.119949999999999</v>
       </c>
       <c r="C8">
-        <v>0.99198758366126027</v>
+        <v>0.99198759999999997</v>
       </c>
       <c r="D8">
         <v>-29.5</v>
@@ -1410,10 +1411,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-9.9922426808988263</v>
+        <v>-9.9922430000000002</v>
       </c>
       <c r="C9">
-        <v>0.98914491506132518</v>
+        <v>0.98914489999999999</v>
       </c>
       <c r="D9">
         <v>-9</v>
@@ -1430,16 +1431,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-8.9589271765264868</v>
+        <v>-8.9589269999999992</v>
       </c>
       <c r="C10">
-        <v>1.0016879773669858</v>
+        <v>1.0016879999999999</v>
       </c>
       <c r="D10">
-        <v>-3.5000000000000004</v>
+        <v>-3.5</v>
       </c>
       <c r="E10">
-        <v>-1.8000000000000003</v>
+        <v>-1.8</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1450,16 +1451,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-6.7017662388782471</v>
+        <v>-6.7017660000000001</v>
       </c>
       <c r="C11">
         <v>1.05</v>
       </c>
       <c r="D11">
-        <v>21.900000000000002</v>
+        <v>21.9</v>
       </c>
       <c r="E11">
-        <v>6.7853148930253404</v>
+        <v>6.7853149999999998</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1470,10 +1471,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-7.9229900659506178</v>
+        <v>-7.9229900000000004</v>
       </c>
       <c r="C12">
-        <v>1.0242521794536972</v>
+        <v>1.0242519999999999</v>
       </c>
       <c r="D12">
         <v>-13.5</v>
@@ -1490,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-8.8160639184361465</v>
+        <v>-8.8160640000000008</v>
       </c>
       <c r="C13">
         <v>1.05</v>
@@ -1499,7 +1500,7 @@
         <v>15.1</v>
       </c>
       <c r="E13">
-        <v>23.352157340039881</v>
+        <v>23.352160000000001</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1515,7 +1516,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F18"/>
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1548,13 +1549,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.7658327985006359</v>
+        <v>5.7658300000000002</v>
       </c>
       <c r="D2">
-        <v>1.794676662601068</v>
+        <v>1.7946800000000001</v>
       </c>
       <c r="E2">
-        <v>5.4794127000054278</v>
+        <v>5.4794099999999997</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1568,13 +1569,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3.9713000308176531</v>
+        <v>3.9712999999999998</v>
       </c>
       <c r="D3">
-        <v>0.93497965141658357</v>
+        <v>0.93498000000000003</v>
       </c>
       <c r="E3">
-        <v>3.8596679891163199</v>
+        <v>3.8596699999999999</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1588,13 +1589,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>7.9334408253972981</v>
+        <v>7.93344</v>
       </c>
       <c r="D4">
-        <v>1.8321706080116142</v>
+        <v>1.8321700000000001</v>
       </c>
       <c r="E4">
-        <v>7.7189788309865781</v>
+        <v>7.7189800000000002</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1608,13 +1609,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1.4974089457711601</v>
+        <v>1.4974099999999999</v>
       </c>
       <c r="D5">
-        <v>0.46870427617660587</v>
+        <v>0.46870400000000001</v>
       </c>
       <c r="E5">
-        <v>1.4221637923844288</v>
+        <v>1.4221600000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1628,13 +1629,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.7312155828090724</v>
+        <v>0.73121599999999998</v>
       </c>
       <c r="D6">
-        <v>0.22759477523494565</v>
+        <v>0.22759499999999999</v>
       </c>
       <c r="E6">
-        <v>0.69489340681040135</v>
+        <v>0.69489299999999998</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1648,13 +1649,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.79991610157248516</v>
+        <v>0.79991599999999996</v>
       </c>
       <c r="D7">
-        <v>0.77506933266935452</v>
+        <v>0.77506900000000001</v>
       </c>
       <c r="E7">
-        <v>0.1978213818332184</v>
+        <v>0.197821</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1668,13 +1669,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.60193431955754084</v>
+        <v>0.60193399999999997</v>
       </c>
       <c r="D8">
-        <v>0.1819067940009732</v>
+        <v>0.18190700000000001</v>
       </c>
       <c r="E8">
-        <v>0.57378989478509224</v>
+        <v>0.57379000000000002</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1688,13 +1689,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.1860646344643317</v>
+        <v>1.1860599999999999</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.1860646344643317</v>
+        <v>1.1860599999999999</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1708,13 +1709,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>0.81997383299081505</v>
-      </c>
-      <c r="D10">
-        <v>-4.3368086899420177E-17</v>
+        <v>0.81997399999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-4.33681E-17</v>
       </c>
       <c r="E10">
-        <v>0.81997383299081505</v>
+        <v>0.81997399999999998</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1728,13 +1729,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.45183098140562761</v>
+        <v>0.45183099999999998</v>
       </c>
       <c r="D11">
-        <v>0.19470120645738426</v>
+        <v>0.19470100000000001</v>
       </c>
       <c r="E11">
-        <v>0.40772867934695445</v>
+        <v>0.40772900000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1748,13 +1749,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.35847013425259966</v>
+        <v>0.35847000000000001</v>
       </c>
       <c r="D12">
-        <v>0.15524557185265334</v>
+        <v>0.155246</v>
       </c>
       <c r="E12">
-        <v>0.32310934615269099</v>
+        <v>0.32310899999999998</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1768,13 +1769,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.8137368330048597E-2</v>
+        <v>1.8137400000000001E-2</v>
       </c>
       <c r="D13">
-        <v>8.2119235606216978E-3</v>
+        <v>8.2119199999999993E-3</v>
       </c>
       <c r="E13">
-        <v>1.6171841001393624E-2</v>
+        <v>1.61718E-2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1788,13 +1789,13 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>1.4349071412275101E-2</v>
+        <v>1.43491E-2</v>
       </c>
       <c r="D14">
-        <v>5.0553592299841131E-3</v>
+        <v>5.0553600000000001E-3</v>
       </c>
       <c r="E14">
-        <v>1.3429042908948686E-2</v>
+        <v>1.3429E-2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1808,13 +1809,13 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>1.3069814223196663</v>
+        <v>1.30698</v>
       </c>
       <c r="D15">
-        <v>0.55605161340779208</v>
+        <v>0.55605199999999999</v>
       </c>
       <c r="E15">
-        <v>1.1827962806482482</v>
+        <v>1.1828000000000001</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1828,13 +1829,13 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>0.22961857205958575</v>
+        <v>0.22961899999999999</v>
       </c>
       <c r="D16">
-        <v>9.0204332594776643E-2</v>
+        <v>9.0204300000000001E-2</v>
       </c>
       <c r="E16">
-        <v>0.21115839319291591</v>
+        <v>0.21115800000000001</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1848,13 +1849,13 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>0.38651638595248811</v>
+        <v>0.38651600000000003</v>
       </c>
       <c r="D17">
-        <v>0.28661572940138247</v>
+        <v>0.28661599999999998</v>
       </c>
       <c r="E17">
-        <v>0.25931899326791746</v>
+        <v>0.25931900000000002</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1868,13 +1869,13 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>0.23837087216299657</v>
+        <v>0.238371</v>
       </c>
       <c r="D18">
-        <v>0.10508517417505787</v>
+        <v>0.105085</v>
       </c>
       <c r="E18">
-        <v>0.21395742301763082</v>
+        <v>0.21395700000000001</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2054,7 +2055,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F13"/>
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2090,10 +2091,10 @@
         <v>1.05</v>
       </c>
       <c r="D2">
-        <v>144.24621147939311</v>
+        <v>144.24619999999999</v>
       </c>
       <c r="E2">
-        <v>-25.956027958772854</v>
+        <v>-25.956029999999998</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2104,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-5.7379537682229884</v>
+        <v>-5.7379540000000002</v>
       </c>
       <c r="C3">
         <v>1.0449999999999999</v>
@@ -2113,7 +2114,7 @@
         <v>18.3</v>
       </c>
       <c r="E3">
-        <v>30.504675187217067</v>
+        <v>30.50468</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2124,7 +2125,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-12.511818372438348</v>
+        <v>-12.51182</v>
       </c>
       <c r="C4">
         <v>1.01</v>
@@ -2133,7 +2134,7 @@
         <v>-68.2</v>
       </c>
       <c r="E4">
-        <v>8.8107629316667051</v>
+        <v>8.8107629999999997</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2144,10 +2145,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-7.9540042913841686</v>
+        <v>-7.9540040000000003</v>
       </c>
       <c r="C5">
-        <v>1.0311711560486159</v>
+        <v>1.0311710000000001</v>
       </c>
       <c r="D5">
         <v>-47.8</v>
@@ -2164,10 +2165,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-6.9034945400022973</v>
+        <v>-6.9034950000000004</v>
       </c>
       <c r="C6">
-        <v>1.0331868713500629</v>
+        <v>1.0331870000000001</v>
       </c>
       <c r="D6">
         <v>-7.6</v>
@@ -2184,10 +2185,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-9.4101714079028671</v>
+        <v>-9.4101710000000001</v>
       </c>
       <c r="C7">
-        <v>1.0232154014838146</v>
+        <v>1.023215</v>
       </c>
       <c r="D7">
         <v>-11.2</v>
@@ -2204,10 +2205,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-11.931180567528402</v>
+        <v>-11.931179999999999</v>
       </c>
       <c r="C8">
-        <v>0.99209156400796039</v>
+        <v>0.99209159999999996</v>
       </c>
       <c r="D8">
         <v>-29.5</v>
@@ -2224,10 +2225,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-11.795471010944258</v>
+        <v>-11.79547</v>
       </c>
       <c r="C9">
-        <v>0.98925265034725318</v>
+        <v>0.98925269999999998</v>
       </c>
       <c r="D9">
         <v>-9</v>
@@ -2244,16 +2245,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-10.744122487929708</v>
+        <v>-10.744120000000001</v>
       </c>
       <c r="C10">
-        <v>1.0018212593712079</v>
+        <v>1.0018210000000001</v>
       </c>
       <c r="D10">
-        <v>-3.5000000000000004</v>
+        <v>-3.5</v>
       </c>
       <c r="E10">
-        <v>-1.8000000000000003</v>
+        <v>-1.8</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2264,16 +2265,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-8.4659077371953551</v>
+        <v>-8.4659080000000007</v>
       </c>
       <c r="C11">
         <v>1.05</v>
       </c>
       <c r="D11">
-        <v>21.900000000000002</v>
+        <v>21.9</v>
       </c>
       <c r="E11">
-        <v>6.6590250653012273</v>
+        <v>6.6590249999999997</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2284,10 +2285,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-9.694781069312592</v>
+        <v>-9.6947810000000008</v>
       </c>
       <c r="C12">
-        <v>1.0243375164180939</v>
+        <v>1.024338</v>
       </c>
       <c r="D12">
         <v>-13.5</v>
@@ -2304,7 +2305,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-10.607514872228574</v>
+        <v>-10.60751</v>
       </c>
       <c r="C13">
         <v>1.05</v>
@@ -2313,7 +2314,7 @@
         <v>15.1</v>
       </c>
       <c r="E13">
-        <v>23.292768195789559</v>
+        <v>23.292770000000001</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2329,7 +2330,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F18"/>
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2362,13 +2363,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8.849895442605348</v>
+        <v>8.8498999999999999</v>
       </c>
       <c r="D2">
-        <v>2.7546238977712898</v>
+        <v>2.7546200000000001</v>
       </c>
       <c r="E2">
-        <v>8.4102732730199801</v>
+        <v>8.4102700000000006</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2382,13 +2383,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>6.9775848391146003</v>
+        <v>6.9775799999999997</v>
       </c>
       <c r="D3">
-        <v>1.6427617631453042</v>
+        <v>1.64276</v>
       </c>
       <c r="E3">
-        <v>6.7814470414941432</v>
+        <v>6.7814500000000004</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2402,13 +2403,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>7.8440510532367513</v>
+        <v>7.8440500000000002</v>
       </c>
       <c r="D4">
-        <v>1.8115266885807022</v>
+        <v>1.8115300000000001</v>
       </c>
       <c r="E4">
-        <v>7.63200550198599</v>
+        <v>7.6320100000000002</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2422,13 +2423,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.97119958454502631</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="D5">
-        <v>0.30399537787105169</v>
+        <v>0.30399500000000002</v>
       </c>
       <c r="E5">
-        <v>0.92239657591161295</v>
+        <v>0.92239700000000002</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2442,13 +2443,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3204514977585563</v>
+        <v>0.32045099999999999</v>
       </c>
       <c r="D6">
-        <v>9.9742248826094684E-2</v>
+        <v>9.9742200000000003E-2</v>
       </c>
       <c r="E6">
-        <v>0.30453348947991821</v>
+        <v>0.304533</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2462,13 +2463,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1.0172722882173195</v>
+        <v>1.0172699999999999</v>
       </c>
       <c r="D7">
-        <v>0.98567406259439849</v>
+        <v>0.98567400000000005</v>
       </c>
       <c r="E7">
-        <v>0.25157414553875529</v>
+        <v>0.25157400000000002</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2482,13 +2483,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.81991772964857146</v>
+        <v>0.81991800000000004</v>
       </c>
       <c r="D8">
-        <v>0.24778219267271853</v>
+        <v>0.247782</v>
       </c>
       <c r="E8">
-        <v>0.78158113359162384</v>
+        <v>0.78158099999999997</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2502,13 +2503,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.1605154065736079</v>
+        <v>1.16052</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.1605154065736079</v>
+        <v>1.16052</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2522,13 +2523,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>0.84222695288035787</v>
+        <v>0.84222699999999995</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.84222695288035787</v>
+        <v>0.84222699999999995</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2542,13 +2543,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.45973544539730304</v>
+        <v>0.459735</v>
       </c>
       <c r="D11">
-        <v>0.19810736659007455</v>
+        <v>0.19810700000000001</v>
       </c>
       <c r="E11">
-        <v>0.41486160470378847</v>
+        <v>0.41486200000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2562,13 +2563,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.35560129690039533</v>
+        <v>0.355601</v>
       </c>
       <c r="D12">
-        <v>0.15400314116529973</v>
+        <v>0.154003</v>
       </c>
       <c r="E12">
-        <v>0.32052350127325124</v>
+        <v>0.32052399999999998</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2582,13 +2583,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.8563072215627134E-2</v>
+        <v>1.8563099999999999E-2</v>
       </c>
       <c r="D13">
-        <v>8.4046663943237055E-3</v>
+        <v>8.4046699999999995E-3</v>
       </c>
       <c r="E13">
-        <v>1.65514118093507E-2</v>
+        <v>1.6551400000000001E-2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2602,13 +2603,13 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>1.5024409121354422E-2</v>
+        <v>1.50244E-2</v>
       </c>
       <c r="D14">
-        <v>5.2932892411226666E-3</v>
+        <v>5.29329E-3</v>
       </c>
       <c r="E14">
-        <v>1.4061079562240338E-2</v>
+        <v>1.40611E-2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2622,13 +2623,13 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>1.308484863302726</v>
+        <v>1.3084800000000001</v>
       </c>
       <c r="D15">
-        <v>0.55669124819526294</v>
+        <v>0.55669100000000005</v>
       </c>
       <c r="E15">
-        <v>1.1841568695384719</v>
+        <v>1.1841600000000001</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2642,13 +2643,13 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>0.23539649640252672</v>
+        <v>0.23539599999999999</v>
       </c>
       <c r="D16">
-        <v>9.2474156871024032E-2</v>
+        <v>9.2474200000000006E-2</v>
       </c>
       <c r="E16">
-        <v>0.21647180146517472</v>
+        <v>0.216472</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2662,13 +2663,13 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>0.38711840171550699</v>
+        <v>0.38711800000000002</v>
       </c>
       <c r="D17">
-        <v>0.28706214562925741</v>
+        <v>0.28706199999999998</v>
       </c>
       <c r="E17">
-        <v>0.2597228936645663</v>
+        <v>0.25972299999999998</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2682,13 +2683,13 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>0.24024478444119018</v>
+        <v>0.24024499999999999</v>
       </c>
       <c r="D18">
-        <v>0.10591128349099851</v>
+        <v>0.10591100000000001</v>
       </c>
       <c r="E18">
-        <v>0.21563941309622245</v>
+        <v>0.215639</v>
       </c>
       <c r="F18">
         <v>0</v>

--- a/EE454_Project_OutputData.xlsx
+++ b/EE454_Project_OutputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Htut\Downloads\18 AUTUMN\EE 454\Project\Git\ee454PowerFlowProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A78800E-D4A6-40FB-946E-B24CD2559C81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E47B5F-568E-4686-B95A-CD0AD126B1CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9490" windowHeight="8790" firstSheet="11" activeTab="11" xr2:uid="{85B10DF5-AE18-4ADC-AFF2-7A735DBB96CE}"/>
   </bookViews>
